--- a/Lista Nintendo 3DS.xlsx
+++ b/Lista Nintendo 3DS.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13830" windowHeight="7425"/>
+    <workbookView windowWidth="20400" windowHeight="7695"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jogos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
-  <si>
-    <t>Nintendo 3DS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>Nome</t>
   </si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Tekken 3d - Prime Edition</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country Returns</t>
   </si>
   <si>
     <t>Tales of Abyss</t>
@@ -224,7 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +232,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +285,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,36 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,17 +337,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,46 +366,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,187 +376,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,16 +576,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -605,11 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,23 +659,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,142 +684,142 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,7 +833,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -892,6 +898,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="download"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect t="26674" r="3085" b="22333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="47625"/>
+          <a:ext cx="2114550" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1165,603 +1215,618 @@
     <col min="3" max="3" width="12.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1770,5 +1835,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lista Nintendo 3DS.xlsx
+++ b/Lista Nintendo 3DS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>Nome</t>
   </si>
@@ -121,9 +121,6 @@
     <t>não</t>
   </si>
   <si>
-    <t>Inazuma Eleven Go</t>
-  </si>
-  <si>
     <t>Monster Hunter Stories</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Kirby Planet Robobot</t>
   </si>
   <si>
-    <t>Angry Birds - Star Wars</t>
-  </si>
-  <si>
     <t>Heroes of Ruin</t>
   </si>
   <si>
@@ -178,22 +172,31 @@
     <t>Mario Sports Superstars</t>
   </si>
   <si>
-    <t>Azure Striker Gunvolt</t>
-  </si>
-  <si>
     <t>Yugioh - Saikyo Card Battle</t>
   </si>
   <si>
     <t>Naruto Shipudden 3ds</t>
   </si>
   <si>
-    <t>Code of Princess</t>
-  </si>
-  <si>
     <t>Batman - Arkhan Origins Blackgate</t>
   </si>
   <si>
     <t>Medabots</t>
+  </si>
+  <si>
+    <t>Iron Fall - Invasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex Troppers </t>
+  </si>
+  <si>
+    <t>Azure Striker Gunvolt 2</t>
+  </si>
+  <si>
+    <t>Mario Tennis</t>
+  </si>
+  <si>
+    <t>Tank Troopers</t>
   </si>
 </sst>
 </file>
@@ -201,8 +204,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -223,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -232,6 +243,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,113 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +354,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -382,31 +385,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,78 +559,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,72 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,21 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,11 +590,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,20 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,145 +684,145 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1594,8 +1597,8 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1605,8 +1608,8 @@
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1616,8 +1619,8 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1671,8 +1674,8 @@
       <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>34</v>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1715,8 +1718,8 @@
       <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1726,8 +1729,8 @@
       <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>34</v>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1737,8 +1740,8 @@
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>34</v>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1753,7 +1756,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1770,8 +1773,8 @@
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>34</v>
+      <c r="C52" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1786,7 +1789,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1825,8 +1828,19 @@
       <c r="B57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>34</v>
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Lista Nintendo 3DS.xlsx
+++ b/Lista Nintendo 3DS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>Nome</t>
   </si>
@@ -121,82 +121,94 @@
     <t>não</t>
   </si>
   <si>
+    <t>Monster Hunter 4 Ultimate</t>
+  </si>
+  <si>
+    <t>Shinobi</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda - Majoras Mask</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Tekken 3d - Prime Edition</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country Returns</t>
+  </si>
+  <si>
+    <t>Tales of Abyss</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts - Dream Drop Distance</t>
+  </si>
+  <si>
+    <t>Need for Speed - The Run</t>
+  </si>
+  <si>
+    <t>Final Fantasy Explorers</t>
+  </si>
+  <si>
+    <t>Pokemon Sun</t>
+  </si>
+  <si>
+    <t>Fire Emblem Fates - Special Edition</t>
+  </si>
+  <si>
+    <t>Kirby Planet Robobot</t>
+  </si>
+  <si>
+    <t>Heroes of Ruin</t>
+  </si>
+  <si>
+    <t>Lbx Little Battlers Experience</t>
+  </si>
+  <si>
+    <t>Mario Sports Superstars</t>
+  </si>
+  <si>
+    <t>Yugioh - Saikyo Card Battle</t>
+  </si>
+  <si>
+    <t>Naruto Shipudden 3ds</t>
+  </si>
+  <si>
+    <t>Batman - Arkhan Origins Blackgate</t>
+  </si>
+  <si>
+    <t>Medabots</t>
+  </si>
+  <si>
+    <t>Iron Fall - Invasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex Troppers </t>
+  </si>
+  <si>
+    <t>Azure Striker Gunvolt 2</t>
+  </si>
+  <si>
+    <t>Mario Tennis</t>
+  </si>
+  <si>
+    <t>Tank Troopers</t>
+  </si>
+  <si>
+    <t>Hakuoki - Memories of the Shinsengumi</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven Go</t>
+  </si>
+  <si>
     <t>Monster Hunter Stories</t>
   </si>
   <si>
-    <t>Monster Hunter 4 Ultimate</t>
-  </si>
-  <si>
-    <t>Shinobi</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda - Majoras Mask</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Tekken 3d - Prime Edition</t>
-  </si>
-  <si>
-    <t>Donkey Kong Country Returns</t>
-  </si>
-  <si>
-    <t>Tales of Abyss</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts - Dream Drop Distance</t>
-  </si>
-  <si>
-    <t>Need for Speed - The Run</t>
-  </si>
-  <si>
-    <t>Final Fantasy Explorers</t>
-  </si>
-  <si>
-    <t>Pokemon Sun</t>
-  </si>
-  <si>
-    <t>Fire Emblem Fates - Special Edition</t>
-  </si>
-  <si>
-    <t>Kirby Planet Robobot</t>
-  </si>
-  <si>
-    <t>Heroes of Ruin</t>
-  </si>
-  <si>
-    <t>Lbx Little Battlers Experience</t>
-  </si>
-  <si>
-    <t>Mario Sports Superstars</t>
-  </si>
-  <si>
-    <t>Yugioh - Saikyo Card Battle</t>
-  </si>
-  <si>
-    <t>Naruto Shipudden 3ds</t>
-  </si>
-  <si>
-    <t>Batman - Arkhan Origins Blackgate</t>
-  </si>
-  <si>
-    <t>Medabots</t>
-  </si>
-  <si>
-    <t>Iron Fall - Invasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ex Troppers </t>
-  </si>
-  <si>
-    <t>Azure Striker Gunvolt 2</t>
-  </si>
-  <si>
-    <t>Mario Tennis</t>
-  </si>
-  <si>
-    <t>Tank Troopers</t>
+    <t>Cars 2</t>
+  </si>
+  <si>
+    <t>Angry Birds - Star Wars</t>
   </si>
 </sst>
 </file>
@@ -204,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -226,6 +238,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +284,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,10 +313,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,11 +367,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,83 +381,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -385,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,24 +617,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,24 +638,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,153 +679,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1564,8 +1576,8 @@
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1575,8 +1587,8 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>34</v>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1586,8 +1598,8 @@
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1597,8 +1609,8 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1608,8 +1620,8 @@
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1652,8 +1664,8 @@
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>34</v>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1663,8 +1675,8 @@
       <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,8 +1730,8 @@
       <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>34</v>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1740,30 +1752,30 @@
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>34</v>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1773,8 +1785,8 @@
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>4</v>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1806,8 +1818,8 @@
       <c r="B55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>34</v>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1841,6 +1853,50 @@
       </c>
       <c r="C58" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
